--- a/xlsx/波斯灣戰爭_intext.xlsx
+++ b/xlsx/波斯灣戰爭_intext.xlsx
@@ -29,7 +29,7 @@
     <t>海湾战争 (消歧义)</t>
   </si>
   <si>
-    <t>政策_政策_美國_波斯灣戰爭</t>
+    <t>体育运动_体育运动_伊朗_波斯灣戰爭</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF%E7%81%A3</t>
